--- a/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
+++ b/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ONPE\DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ONPE\Repositorio ONPE\repositorioOnpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SISGLV" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
   <si>
     <t>ID_LOCAL</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>SE MOVIERON AMBIENTES ESPECIALES; SE MOVIERON AULAS DEL PABELLON</t>
+  </si>
+  <si>
+    <t>SE MOVIERON AMBIENTES ESPECIALES; SE AGREGO UN AULA DEL PABELLON 200 Y 300; SE MOVIERON AULAS DEL PABELLONE 100</t>
   </si>
 </sst>
 </file>
@@ -401,13 +404,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,12 +846,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1385,7 +1388,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,12 +1401,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1566,7 +1569,7 @@
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -1580,7 +1583,7 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1594,7 +1597,7 @@
       <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1608,7 +1611,7 @@
       <c r="B16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -1622,7 +1625,7 @@
       <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -1636,7 +1639,7 @@
       <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -1650,7 +1653,7 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1664,7 +1667,7 @@
       <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1678,7 +1681,7 @@
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1692,7 +1695,7 @@
       <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1706,7 +1709,7 @@
       <c r="B23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1720,7 +1723,7 @@
       <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1734,7 +1737,7 @@
       <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1748,7 +1751,7 @@
       <c r="B26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1762,7 +1765,7 @@
       <c r="B27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -1776,7 +1779,7 @@
       <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -1790,7 +1793,7 @@
       <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -1804,7 +1807,7 @@
       <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -1818,7 +1821,7 @@
       <c r="B31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -1832,7 +1835,7 @@
       <c r="B32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -1846,7 +1849,7 @@
       <c r="B33" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -1860,7 +1863,7 @@
       <c r="B34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -1874,7 +1877,7 @@
       <c r="B35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <v>4909</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -1888,7 +1891,7 @@
       <c r="B36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -1920,7 +1923,7 @@
         <v>4936</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
+++ b/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SISGLV" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
   <si>
     <t>ID_LOCAL</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>SE MOVIERON AMBIENTES ESPECIALES; SE AGREGO UN AULA DEL PABELLON 200 Y 300; SE MOVIERON AULAS DEL PABELLONE 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE MOVIERON AMBIENTES ESPECIALES; SE MOVIERON AULAS DEL PABELLON 100 Y 200; SE AGREGARON 2 AULAS DEL PABELLON 100; </t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1912,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">

--- a/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
+++ b/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ONPE\Repositorio ONPE\repositorioOnpe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio ONPE\repositorioOnpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0CFA8-B0D0-402C-AB02-0C9534D0C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="22104" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SISGLV" sheetId="1" r:id="rId1"/>
@@ -227,9 +228,6 @@
     <t>SE MOVIERON AMBIENTES ESPECIALES; SE REUBICARON EL PABELLON 100, 200, 300, 400; SE DESHABILITO EL PABELLON 500</t>
   </si>
   <si>
-    <t>NO HUBO CAMBIOS</t>
-  </si>
-  <si>
     <t>SE MOVIERON AMBIENTES ESPECIALES; SE QUITÓ UN AULA DEL PABELLON 200</t>
   </si>
   <si>
@@ -267,12 +265,15 @@
   </si>
   <si>
     <t xml:space="preserve">SE MOVIERON AMBIENTES ESPECIALES; SE MOVIERON AULAS DEL PABELLON 100 Y 200; SE AGREGARON 2 AULAS DEL PABELLON 100; </t>
+  </si>
+  <si>
+    <t>NO HUBO CAMBIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -537,10 +538,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C2:D3" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="C2:D3" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="ID_LOCAL" dataDxfId="1"/>
-    <tableColumn id="2" name="MOTIVO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_LOCAL" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MOTIVO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,6 +623,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -657,6 +675,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,23 +867,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="73.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="73.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -856,7 +891,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -870,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -884,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -898,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -912,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -926,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -940,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -954,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -996,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1010,7 +1045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1038,7 +1073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1066,7 +1101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1080,7 +1115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1094,7 +1129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1164,7 +1199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1178,7 +1213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1192,7 +1227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1206,7 +1241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1220,7 +1255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1234,7 +1269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1248,7 +1283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1262,7 +1297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1276,7 +1311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1290,7 +1325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -1304,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -1318,7 +1353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -1332,7 +1367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>34</v>
       </c>
@@ -1346,7 +1381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>35</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1387,23 +1422,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1446,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1425,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1481,7 +1516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1495,7 +1530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1509,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1523,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1537,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1551,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1579,7 +1614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1590,10 +1625,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1618,10 +1653,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1635,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -1646,10 +1681,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1660,10 +1695,10 @@
         <v>34</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1688,10 +1723,10 @@
         <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -1702,10 +1737,10 @@
         <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -1716,10 +1751,10 @@
         <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -1730,10 +1765,10 @@
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -1744,10 +1779,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -1758,10 +1793,10 @@
         <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -1775,7 +1810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -1786,10 +1821,10 @@
         <v>45</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -1800,10 +1835,10 @@
         <v>46</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -1817,7 +1852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -1831,7 +1866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -1845,7 +1880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -1859,7 +1894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -1887,7 +1922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -1901,7 +1936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -1912,10 +1947,10 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -1926,7 +1961,7 @@
         <v>4936</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
+++ b/CONTROL Y MODIFICACION SISGLV ERM 2022(4).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio ONPE\repositorioOnpe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ONPE\Repositorio ONPE\repositorioOnpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0CFA8-B0D0-402C-AB02-0C9534D0C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SISGLV" sheetId="1" r:id="rId1"/>
@@ -264,16 +263,16 @@
     <t>SE MOVIERON AMBIENTES ESPECIALES; SE AGREGO UN AULA DEL PABELLON 200 Y 300; SE MOVIERON AULAS DEL PABELLONE 100</t>
   </si>
   <si>
-    <t xml:space="preserve">SE MOVIERON AMBIENTES ESPECIALES; SE MOVIERON AULAS DEL PABELLON 100 Y 200; SE AGREGARON 2 AULAS DEL PABELLON 100; </t>
-  </si>
-  <si>
     <t>NO HUBO CAMBIO</t>
+  </si>
+  <si>
+    <t>SE MOVIERON AMBIENTES ESPECIALES; SE MOVIERON AULAS DEL PABELLON 100 Y 200; SE AGREGARON 2 AULAS DEL PABELLON 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +417,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -538,10 +537,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="C2:D3" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C2:D3" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_LOCAL" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MOTIVO" dataDxfId="0"/>
+    <tableColumn id="1" name="ID_LOCAL" dataDxfId="1"/>
+    <tableColumn id="2" name="MOTIVO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,23 +622,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -675,23 +657,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,23 +832,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="73.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -891,7 +856,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -905,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -919,7 +884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -933,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -947,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -961,7 +926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -975,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -989,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1003,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1017,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1031,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1045,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1059,7 +1024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1073,7 +1038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1087,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1101,7 +1066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1115,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1129,7 +1094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1143,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1157,7 +1122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1171,7 +1136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1185,7 +1150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1199,7 +1164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1213,7 +1178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1227,7 +1192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1241,7 +1206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1255,7 +1220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1269,7 +1234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1283,7 +1248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1297,7 +1262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1311,7 +1276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1325,7 +1290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -1339,7 +1304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -1353,7 +1318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -1367,7 +1332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>34</v>
       </c>
@@ -1381,7 +1346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>35</v>
       </c>
@@ -1395,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1422,23 +1387,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1411,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1474,7 +1439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1488,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1502,7 +1467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1516,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1530,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1544,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1558,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1572,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1586,7 +1551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1600,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1614,7 +1579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1628,7 +1593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1642,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1656,7 +1621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1670,7 +1635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -1684,7 +1649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1698,7 +1663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -1712,7 +1677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1726,7 +1691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -1740,7 +1705,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -1754,7 +1719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -1768,7 +1733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -1782,7 +1747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -1796,7 +1761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -1810,7 +1775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -1821,10 +1786,10 @@
         <v>45</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -1838,7 +1803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -1852,7 +1817,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -1866,7 +1831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -1880,7 +1845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -1894,7 +1859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -1908,7 +1873,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -1922,7 +1887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -1936,7 +1901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -1947,10 +1912,10 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="10" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
